--- a/input wfmmacro multiskill.xlsx
+++ b/input wfmmacro multiskill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c54fc691ce3c675f/Desktop/new wfm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{233DF4F6-7921-45A6-97F2-9F9F4D6AFAC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{233DF4F6-7921-45A6-97F2-9F9F4D6AFAC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12449889-43E9-4538-96CD-AA4229A118B5}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requisiti_ps" sheetId="568" r:id="rId1"/>
@@ -3840,7 +3840,7 @@
                   <a14:compatExt spid="_x0000_s16385"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{989BCE1A-0827-45F7-A559-565DC7B996C6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001400000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3910,7 +3910,7 @@
                   <a14:compatExt spid="_x0000_s16386"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F80249B0-498E-4E48-B5E1-4D9BAFBB12BF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002400000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3985,7 +3985,7 @@
                   <a14:compatExt spid="_x0000_s8193"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001200000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4055,7 +4055,7 @@
                   <a14:compatExt spid="_x0000_s8194"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002200000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4119,6 +4119,7 @@
       <sheetName val="settimana"/>
       <sheetName val="config"/>
       <sheetName val="Foglio12"/>
+      <sheetName val="input wfmmacro ps"/>
     </sheetNames>
     <definedNames>
       <definedName name="RunWFMfixturnigpt5fasce"/>
@@ -4132,6 +4133,7 @@
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
+      <sheetData sheetId="7" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4403,7 +4405,7 @@
   <sheetPr codeName="Foglio13"/>
   <dimension ref="A1:J96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="C4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
@@ -7177,8 +7179,8 @@
   <sheetPr codeName="Foglio12"/>
   <dimension ref="A1:J96"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8217,7 +8219,7 @@
         <v>4.0104488966434495</v>
       </c>
       <c r="H37" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
@@ -8245,7 +8247,7 @@
         <v>3.9044393744187342</v>
       </c>
       <c r="H38" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
@@ -8273,7 +8275,7 @@
         <v>7.2389998567119314</v>
       </c>
       <c r="H39" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
@@ -8301,7 +8303,7 @@
         <v>7.1100177893868874</v>
       </c>
       <c r="H40" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
@@ -8329,7 +8331,7 @@
         <v>7.6882428193219372</v>
       </c>
       <c r="H41" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
@@ -8357,7 +8359,7 @@
         <v>7.6882428193219372</v>
       </c>
       <c r="H42" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
@@ -8385,7 +8387,7 @@
         <v>8.3942082182846889</v>
       </c>
       <c r="H43" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
@@ -8413,7 +8415,7 @@
         <v>7.7878580899887604</v>
       </c>
       <c r="H44" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
@@ -19034,11 +19036,11 @@
   </sheetData>
   <autoFilter ref="A1:AK29" xr:uid="{BAB51232-DE35-4AFA-A353-AF5CBD54AEA2}"/>
   <phoneticPr fontId="4" type="noConversion"/>
+  <conditionalFormatting sqref="A2:A92">
+    <cfRule type="duplicateValues" dxfId="3" priority="20"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B2:B26">
-    <cfRule type="duplicateValues" dxfId="3" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A92">
-    <cfRule type="duplicateValues" dxfId="2" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="18"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -22991,29 +22993,29 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AK1:AL1"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="S1:T1"/>
   </mergeCells>
+  <conditionalFormatting sqref="A23 A3:B22 B23:B30">
+    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A24:A27">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23 A3:B22 B23:B30">
-    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
